--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t47Y0r7B</t>
+          <t>Yw4Q24xa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,22 +738,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
@@ -762,46 +762,46 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
@@ -810,25 +810,25 @@
         <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -843,16 +843,16 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
@@ -861,13 +861,13 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -876,19 +876,19 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,17 +900,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ns8U1Oi5</t>
+          <t>COFH4Q7n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -971,22 +971,22 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -995,52 +995,52 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1049,28 +1049,28 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,12 +1082,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jTuvbXzt</t>
+          <t>044Yxl5U</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1102,157 +1102,157 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
         <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,833 +1264,833 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fB9eBDzG</t>
+          <t>tbKWYmjB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
         <v>21</v>
       </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AM5" t="n">
         <v>29</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>41</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wl0mSI6c</t>
+          <t>8dtpM6A4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.25</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="I6" t="n">
-        <v>1.57</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>9</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15</v>
-      </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OvLfNxCl</t>
+          <t>dO5vJ2yJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>2.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>10.4</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0pnVemcc</t>
+          <t>p8Qb6iac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.25</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>8.300000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.06</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
         <v>11</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.15</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q3VpiiuH</t>
+          <t>UarCrl7j</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2099,114 +2099,114 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP9" t="n">
         <v>17</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
         <v>41</v>
       </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>251</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>h6ZMDAbs</t>
+          <t>hYT64VT9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2287,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2338,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
         <v>126</v>
@@ -2347,26 +2347,26 @@
         <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lYSVBlTg</t>
+          <t>OA7YV9KP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2409,16 +2409,16 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2433,22 +2433,22 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>7.5</v>
@@ -2463,43 +2463,43 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
         <v>26</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>101</v>
-      </c>
       <c r="AR11" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.5</v>
@@ -2511,22 +2511,22 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2538,17 +2538,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dbWwASc6</t>
+          <t>rel5Qmrm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,109 +2558,109 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.1</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.63</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
         <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2669,37 +2669,37 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
         <v>67</v>
@@ -2708,7 +2708,7 @@
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,17 +2720,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IDKn86SI</t>
+          <t>G8nDORCa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,31 +2740,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2773,311 +2773,129 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.98</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>19</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AR13" t="n">
         <v>41</v>
       </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX13" t="n">
         <v>41</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>201</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>rydtguO0</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>El Paso</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>70</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1478,19 +1478,19 @@
         <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
         <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
         <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,13 +1502,13 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,31 +1517,31 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1556,10 +1556,10 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
         <v>16.5</v>
@@ -1571,19 +1571,19 @@
         <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
         <v>6.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1595,7 +1595,7 @@
         <v>3.15</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>60</v>
@@ -1604,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="K6" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
         <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="U6" t="n">
         <v>1.9</v>
@@ -1523,85 +1523,85 @@
         <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
         <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
         <v>3.15</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
         <v>35</v>
@@ -1613,10 +1613,10 @@
         <v>250</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="M7" t="n">
         <v>10.4</v>
@@ -1690,7 +1690,7 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1702,22 +1702,22 @@
         <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
         <v>23</v>
@@ -1732,49 +1732,49 @@
         <v>11.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
         <v>6.3</v>
@@ -1783,10 +1783,10 @@
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY7" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H6" t="n">
         <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1508,7 +1508,7 @@
         <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1517,40 +1517,40 @@
         <v>3.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AA6" t="n">
         <v>9.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>7.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
         <v>350</v>
@@ -1559,55 +1559,55 @@
         <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU6" t="n">
         <v>7.9</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1517,10 +1517,10 @@
         <v>3.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -2039,13 +2039,13 @@
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
         <v>4.5</v>
@@ -2221,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -2039,13 +2039,13 @@
         <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>4.5</v>
@@ -2221,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -986,16 +986,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1013,13 +1013,13 @@
         <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1386,7 +1386,7 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1395,10 +1395,10 @@
         <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1478,16 +1478,16 @@
         <v>1.37</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q6" t="n">
         <v>1.57</v>
@@ -1526,7 +1526,7 @@
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>7.1</v>
@@ -1541,7 +1541,7 @@
         <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7.7</v>
@@ -1568,13 +1568,13 @@
         <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
         <v>6.1</v>
@@ -1592,7 +1592,7 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>7.9</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.37</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="M7" t="n">
         <v>10.4</v>
@@ -1702,103 +1702,103 @@
         <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
         <v>11.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="n">
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
         <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
         <v>6.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>10.4</v>
@@ -1690,7 +1690,7 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1699,28 +1699,28 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
         <v>11.25</v>
@@ -1729,49 +1729,49 @@
         <v>6.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF7" t="n">
         <v>45</v>
       </c>
       <c r="AG7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH7" t="n">
         <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
         <v>2.82</v>
@@ -1783,22 +1783,22 @@
         <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BA7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2030,7 +2030,7 @@
         <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -2767,10 +2767,10 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2797,16 +2797,16 @@
         <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
@@ -2818,7 +2818,7 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2830,34 +2830,34 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2869,13 +2869,13 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA13" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -1475,31 +1475,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
         <v>4.1</v>
@@ -1508,64 +1508,64 @@
         <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1574,16 +1574,16 @@
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1595,19 +1595,19 @@
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -1848,7 +1848,7 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,13 +1502,13 @@
         <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,10 +1523,10 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
@@ -1544,7 +1544,7 @@
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1556,16 +1556,16 @@
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1574,7 +1574,7 @@
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
         <v>6.2</v>
@@ -1583,7 +1583,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,22 +1592,22 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -1848,7 +1848,7 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2030,7 +2030,7 @@
         <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -2236,7 +2236,7 @@
         <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2418,7 +2418,7 @@
         <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="O6" t="n">
         <v>1.14</v>
@@ -1505,10 +1505,10 @@
         <v>4.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,31 +1523,31 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB6" t="n">
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>55</v>
@@ -1556,16 +1556,16 @@
         <v>350</v>
       </c>
       <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>16</v>
       </c>
-      <c r="AI6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1574,16 +1574,16 @@
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,22 +1592,22 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2236,7 +2236,7 @@
         <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2418,7 +2418,7 @@
         <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1493,16 +1493,16 @@
         <v>5.8</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q6" t="n">
         <v>1.57</v>
@@ -1514,13 +1514,13 @@
         <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
         <v>6.7</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
         <v>3.1</v>
@@ -1690,7 +1690,7 @@
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1699,46 +1699,46 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1756,16 +1756,16 @@
         <v>24</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR7" t="n">
         <v>80</v>
@@ -1774,13 +1774,13 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW7" t="n">
         <v>4.65</v>
@@ -1795,7 +1795,7 @@
         <v>55</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2063,22 +2063,22 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -2090,79 +2090,79 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
         <v>41</v>
       </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
       <c r="AM9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
         <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2579,7 +2579,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2758,10 +2758,10 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L13" t="n">
         <v>7.5</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,79 +1475,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF6" t="n">
         <v>55</v>
@@ -1556,13 +1556,13 @@
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>100</v>
@@ -1574,16 +1574,16 @@
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,22 +1592,22 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -2579,7 +2579,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2758,10 +2758,10 @@
         <v>8.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
         <v>7.5</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -1010,19 +1010,19 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2767,10 +2767,10 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -1016,13 +1016,13 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1329,7 +1329,7 @@
         <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -2057,7 +2057,7 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T9" t="n">
         <v>3.4</v>
@@ -2239,10 +2239,10 @@
         <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -950,7 +950,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -965,7 +965,7 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T3" t="n">
         <v>2.5</v>
@@ -1147,7 +1147,7 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
@@ -2057,7 +2057,7 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
         <v>3.4</v>
@@ -2239,10 +2239,10 @@
         <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.37</v>
@@ -1478,19 +1478,19 @@
         <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,7 +1502,7 @@
         <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q6" t="n">
         <v>1.55</v>
@@ -1511,10 +1511,10 @@
         <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1523,16 +1523,16 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
         <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
@@ -1544,7 +1544,7 @@
         <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1577,13 +1577,13 @@
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,10 +1592,10 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -965,7 +965,7 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>2.5</v>
@@ -1147,7 +1147,7 @@
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
         <v>2.5</v>
@@ -1329,7 +1329,7 @@
         <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1478,19 +1478,19 @@
         <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,10 +1499,10 @@
         <v>13.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="Q6" t="n">
         <v>1.55</v>
@@ -1511,16 +1511,16 @@
         <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
         <v>6.8</v>
@@ -1529,10 +1529,10 @@
         <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
@@ -1541,10 +1541,10 @@
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1553,19 +1553,19 @@
         <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
         <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1583,7 +1583,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,31 +1592,31 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2251,10 +2251,10 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2266,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2278,25 +2278,25 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2332,19 +2332,19 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I6" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K6" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1505,10 +1505,10 @@
         <v>4.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="n">
         <v>1.28</v>
@@ -1523,16 +1523,16 @@
         <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
         <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
@@ -1541,10 +1541,10 @@
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1556,22 +1556,22 @@
         <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
         <v>3.3</v>
@@ -1580,10 +1580,10 @@
         <v>6.2</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1592,16 +1592,16 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
         <v>7.7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>35</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
         <v>2.1</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2063,22 +2063,22 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
@@ -2120,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2141,16 +2141,16 @@
         <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2159,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,76 +1475,76 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.25</v>
+        <v>3.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7</v>
       </c>
-      <c r="X6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.1</v>
-      </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE6" t="n">
         <v>14.5</v>
@@ -1553,19 +1553,19 @@
         <v>55</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
         <v>45</v>
@@ -1577,34 +1577,34 @@
         <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU6" t="n">
         <v>7.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY6" t="n">
         <v>35</v>
@@ -1616,7 +1616,7 @@
         <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
         <v>2.1</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
@@ -2051,7 +2051,7 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>2.2</v>
@@ -2063,22 +2063,22 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
@@ -2120,10 +2120,10 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2141,16 +2141,16 @@
         <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2159,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -965,22 +965,22 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1046,7 +1046,7 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
@@ -1070,7 +1070,7 @@
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
         <v>3.1</v>
@@ -1335,10 +1335,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
@@ -1353,13 +1353,13 @@
         <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1368,13 +1368,13 @@
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1395,10 +1395,10 @@
         <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1413,7 +1413,7 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
         <v>2.1</v>
@@ -2063,7 +2063,7 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
@@ -2221,13 +2221,13 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2403,16 +2403,16 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2585,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
@@ -2767,22 +2767,22 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -974,7 +974,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1389,7 +1389,7 @@
         <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>4.75</v>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
@@ -1672,19 +1672,19 @@
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>10.4</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
@@ -1693,28 +1693,28 @@
         <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="U7" t="n">
         <v>1.52</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA7" t="n">
         <v>20</v>
@@ -1738,10 +1738,10 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1753,16 +1753,16 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>60</v>
@@ -1774,31 +1774,31 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV7" t="n">
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA7" t="n">
         <v>75</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
         <v>2.1</v>
@@ -2063,7 +2063,7 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
@@ -2203,31 +2203,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2245,22 +2245,22 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2305,13 +2305,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2403,16 +2403,16 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2585,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2767,13 +2767,13 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -974,7 +974,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1848,7 +1848,7 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2579,7 +2579,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -947,16 +947,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -1129,13 +1129,13 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1848,7 +1848,7 @@
         <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2027,28 +2027,28 @@
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2102,7 +2102,7 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
@@ -2579,7 +2579,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -947,16 +947,16 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -1129,13 +1129,13 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1920,10 +1920,10 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>13</v>
@@ -1938,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
@@ -1974,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
         <v>2.05</v>
@@ -2039,16 +2039,16 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2069,7 +2069,7 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
@@ -2096,13 +2096,13 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2147,13 +2147,13 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -974,7 +974,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1311,13 +1311,13 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
@@ -1344,7 +1344,7 @@
         <v>9.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1431,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -2039,10 +2039,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -974,7 +974,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1311,13 +1311,13 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>3.5</v>
@@ -1517,10 +1517,10 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,22 +2245,22 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2305,13 +2305,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2430,7 +2430,7 @@
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2612,7 +2612,7 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1681,16 +1681,16 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1699,37 +1699,37 @@
         <v>3.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
         <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
@@ -1738,7 +1738,7 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
@@ -1750,49 +1750,49 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>60</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV7" t="n">
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY7" t="n">
         <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA7" t="n">
         <v>75</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.18</v>
@@ -2063,34 +2063,34 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,16 +2099,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,16 +2120,16 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2150,19 +2150,19 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2430,7 +2430,7 @@
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2612,7 +2612,7 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1478,19 +1478,19 @@
         <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
         <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,13 +1499,13 @@
         <v>12.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.94</v>
+        <v>3.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
         <v>2.05</v>
@@ -1517,37 +1517,37 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
         <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
         <v>55</v>
@@ -1556,16 +1556,16 @@
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
         <v>45</v>
@@ -1574,7 +1574,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
         <v>6.6</v>
@@ -1589,22 +1589,22 @@
         <v>45</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
         <v>35</v>
@@ -1613,7 +1613,7 @@
         <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>
@@ -2039,22 +2039,22 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -756,19 +756,19 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -789,13 +789,13 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -825,13 +825,13 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -849,13 +849,13 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -977,7 +977,7 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.75</v>
@@ -1043,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.38</v>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -2224,7 +2224,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -2045,16 +2045,16 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -2764,7 +2764,7 @@
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,34 +2791,34 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2836,28 +2836,28 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2869,13 +2869,13 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1857,22 +1857,22 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -2024,7 +2024,7 @@
         <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
@@ -2033,46 +2033,46 @@
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2081,13 +2081,13 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>7.5</v>
@@ -2096,13 +2096,13 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
@@ -2120,13 +2120,13 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2135,10 +2135,10 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2150,19 +2150,19 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,10 +2251,10 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2266,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2278,25 +2278,25 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
         <v>41</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,7 +2323,7 @@
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2332,19 +2332,19 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2403,22 +2403,22 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2466,7 +2466,7 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2484,10 +2484,10 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.1</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
@@ -2588,7 +2588,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2615,10 +2615,10 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2645,13 +2645,13 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH12" t="n">
         <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2666,10 +2666,10 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -2764,7 +2764,7 @@
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,34 +2791,34 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2845,19 +2845,19 @@
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2869,13 +2869,13 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA13" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1875,16 +1875,16 @@
         <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1911,7 +1911,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
@@ -2042,7 +2042,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2206,7 +2206,7 @@
         <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -2215,7 +2215,7 @@
         <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -2227,28 +2227,28 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2269,13 +2269,13 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2284,10 +2284,10 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
@@ -2299,13 +2299,13 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2314,13 +2314,13 @@
         <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2335,16 +2335,16 @@
         <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
         <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2403,10 +2403,10 @@
         <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2415,10 +2415,10 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -768,7 +768,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,13 +1502,13 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1523,16 +1523,16 @@
         <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA6" t="n">
         <v>9.25</v>
@@ -1541,49 +1541,49 @@
         <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR6" t="n">
         <v>45</v>
@@ -1592,7 +1592,7 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU6" t="n">
         <v>7.7</v>
@@ -1601,7 +1601,7 @@
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
         <v>35</v>
@@ -1613,10 +1613,10 @@
         <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1860,7 +1860,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.98</v>
+        <v>4.05</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1517,10 +1517,10 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1666,13 +1666,13 @@
         <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1681,34 +1681,34 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T7" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1720,16 +1720,16 @@
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AD7" t="n">
         <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
@@ -1738,10 +1738,10 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1750,31 +1750,31 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN7" t="n">
         <v>4.7</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>60</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
         <v>6.2</v>
@@ -1786,10 +1786,10 @@
         <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
         <v>55</v>
@@ -1798,7 +1798,7 @@
         <v>75</v>
       </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2406,19 +2406,19 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2466,7 +2466,7 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>17</v>
@@ -2484,10 +2484,10 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2588,7 +2588,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1308,13 +1308,13 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1329,16 +1329,16 @@
         <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
         <v>9.5</v>
@@ -1359,13 +1359,13 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1410,7 +1410,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1437,7 +1437,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1660,19 +1660,19 @@
         <v>2.62</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1687,10 +1687,10 @@
         <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.34</v>
@@ -1705,10 +1705,10 @@
         <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1717,31 +1717,31 @@
         <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE7" t="n">
         <v>11.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1750,13 +1750,13 @@
         <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1774,28 +1774,28 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1851,7 +1851,7 @@
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
@@ -1860,7 +1860,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1869,22 +1869,22 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
         <v>8.5</v>
@@ -1911,7 +1911,7 @@
         <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2469,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.38</v>
@@ -789,13 +789,13 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -1311,22 +1311,22 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1657,52 +1657,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
         <v>3.2</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>10</v>
@@ -1717,19 +1717,19 @@
         <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
         <v>6.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF7" t="n">
         <v>45</v>
@@ -1738,25 +1738,25 @@
         <v>300</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1774,7 +1774,7 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>6.3</v>
@@ -1783,7 +1783,7 @@
         <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,13 +1887,13 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1917,10 +1917,10 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>21</v>
@@ -1941,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>34</v>
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2063,13 +2063,13 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>8</v>
@@ -2081,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2102,13 +2102,13 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2126,7 +2126,7 @@
         <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2165,7 +2165,7 @@
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2406,7 +2406,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
@@ -2588,7 +2588,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2618,7 +2618,7 @@
         <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2669,13 +2669,13 @@
         <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.91</v>
@@ -2764,25 +2764,25 @@
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,34 +2791,34 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2830,13 +2830,13 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
@@ -2845,19 +2845,19 @@
         <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP13" t="n">
         <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2869,13 +2869,13 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,7 +2884,7 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yw4Q24xa</t>
+          <t>t47Y0r7B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
         <v>5.5</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,17 +900,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COFH4Q7n</t>
+          <t>ns8U1Oi5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,85 +920,85 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Flamengo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1007,49 +1007,49 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1061,16 +1061,16 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,12 +1082,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>044Yxl5U</t>
+          <t>jTuvbXzt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1102,55 +1102,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.4</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1159,28 +1159,28 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1189,46 +1189,46 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>23</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,952 +1264,952 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tbKWYmjB</t>
+          <t>fB9eBDzG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENGLAND - LEAGUE ONE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shrewsbury</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Exeter</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>29</v>
       </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8dtpM6A4</t>
+          <t>Wl0mSI6c</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>CHILE - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RFS</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auda</t>
+          <t>Colo Colo</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.6</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.07</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>3.22</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>7</v>
       </c>
-      <c r="Z6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>15.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dO5vJ2yJ</t>
+          <t>OvLfNxCl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atl. Morelia</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zacatecas Mineros</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.57</v>
       </c>
-      <c r="V7" t="n">
-        <v>2.12</v>
-      </c>
       <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>p8Qb6iac</t>
+          <t>0pnVemcc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Union Comercio</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Cancun</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
       </c>
       <c r="AI8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
         <v>21</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UarCrl7j</t>
+          <t>Q3VpiiuH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cusco</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AN9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
         <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hYT64VT9</t>
+          <t>h6ZMDAbs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grau</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2218,25 +2218,25 @@
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,22 +2245,22 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2284,13 +2284,13 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2305,7 +2305,7 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,16 +2323,16 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2347,26 +2347,26 @@
         <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OA7YV9KP</t>
+          <t>lYSVBlTg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,154 +2376,154 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Maldonado</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.57</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
         <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>41</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="BA11" t="n">
         <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>126</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>
@@ -2538,17 +2538,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rel5Qmrm</t>
+          <t>dbWwASc6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fenix</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>6.5</v>
       </c>
-      <c r="X12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
         <v>67</v>
       </c>
-      <c r="AG12" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
       <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>29</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,17 +2720,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G8nDORCa</t>
+          <t>IDKn86SI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17/10/2024</t>
+          <t>16/10/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,162 +2740,344 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>9.5</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rydtguO0</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>El Paso</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="J14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
         <v>9</v>
       </c>
-      <c r="Z13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="Z14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
+      <c r="AQ14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t47Y0r7B</t>
+          <t>Yw4Q24xa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atletico-MG</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W2" t="n">
         <v>6</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>67</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
         <v>34</v>
       </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA2" t="n">
         <v>126</v>
       </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
       <c r="BB2" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,17 +900,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ns8U1Oi5</t>
+          <t>COFH4Q7n</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,67 +920,67 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Flamengo RJ</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.67</v>
       </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,16 +989,16 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1007,10 +1007,10 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1025,31 +1025,31 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1061,7 +1061,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>101</v>
@@ -1070,7 +1070,7 @@
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,12 +1082,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jTuvbXzt</t>
+          <t>044Yxl5U</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1102,55 +1102,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1159,28 +1159,28 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
         <v>15</v>
       </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>34</v>
       </c>
-      <c r="AB4" t="n">
-        <v>41</v>
-      </c>
       <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1189,46 +1189,46 @@
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>9</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AP4" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,22 +1237,22 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1264,979 +1264,979 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fB9eBDzG</t>
+          <t>tbKWYmjB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ENGLAND - LEAGUE ONE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Shrewsbury</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Exeter</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AK5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>17</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>41</v>
       </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>201</v>
-      </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
         <v>501</v>
       </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wl0mSI6c</t>
+          <t>8dtpM6A4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CHILE - PRIMERA DIVISION</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>RFS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Colo Colo</t>
+          <t>Auda</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12</v>
-      </c>
-      <c r="X6" t="n">
-        <v>26</v>
-      </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OvLfNxCl</t>
+          <t>dO5vJ2yJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atl. Morelia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Zacatecas Mineros</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
-        <v>2.38</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AE7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
         <v>21</v>
       </c>
-      <c r="AF7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AQ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0pnVemcc</t>
+          <t>p8Qb6iac</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Union Comercio</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cancun</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.75</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.7</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q3VpiiuH</t>
+          <t>UarCrl7j</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nacional Asuncion</t>
+          <t>Cusco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.15</v>
       </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>19</v>
       </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>h6ZMDAbs</t>
+          <t>hYT64VT9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Grau</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,22 +2245,22 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2269,13 +2269,13 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2284,13 +2284,13 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2299,13 +2299,13 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2323,50 +2323,50 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lYSVBlTg</t>
+          <t>OA7YV9KP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,154 +2376,154 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Maldonado</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
         <v>4.75</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.5</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
         <v>17</v>
       </c>
-      <c r="Z11" t="n">
-        <v>51</v>
-      </c>
       <c r="AA11" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>41</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
         <v>126</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>301</v>
@@ -2538,17 +2538,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dbWwASc6</t>
+          <t>rel5Qmrm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Fenix</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W12" t="n">
         <v>6.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5.5</v>
-      </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
         <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY12" t="n">
         <v>34</v>
       </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,17 +2720,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IDKn86SI</t>
+          <t>G8nDORCa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16/10/2024</t>
+          <t>17/10/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,344 +2740,162 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
         <v>3.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.95</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.2</v>
       </c>
-      <c r="L13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>19</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AR13" t="n">
         <v>41</v>
       </c>
-      <c r="AA13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX13" t="n">
         <v>41</v>
       </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>201</v>
       </c>
-      <c r="AH13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="BA13" t="n">
         <v>201</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>rydtguO0</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16/10/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>USA - USL CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>El Paso</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Orange County SC</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,22 +765,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -959,10 +959,10 @@
         <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -1010,16 +1010,16 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1043,7 +1043,7 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.38</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1317,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1371,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1392,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1413,7 +1413,7 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
         <v>3.15</v>
@@ -1681,16 +1681,16 @@
         <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1699,16 +1699,16 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1720,40 +1720,40 @@
         <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN7" t="n">
         <v>4.7</v>
@@ -1777,25 +1777,25 @@
         <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AX7" t="n">
         <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1983,7 +1983,7 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2024,25 +2024,25 @@
         <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J9" t="n">
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -2057,10 +2057,10 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
         <v>1.73</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
@@ -2087,10 +2087,10 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2123,7 +2123,7 @@
         <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2135,10 +2135,10 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2245,10 +2245,10 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2269,13 +2269,13 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2293,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2305,13 +2305,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2332,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2406,7 +2406,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2615,7 +2615,7 @@
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2767,10 +2767,10 @@
         <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,22 +765,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -980,13 +980,13 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -1001,25 +1001,25 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1296,13 +1296,13 @@
         <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1371,10 +1371,10 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1413,7 +1413,7 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L6" t="n">
         <v>6.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,13 +1502,13 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1517,25 +1517,25 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB6" t="n">
         <v>19.5</v>
@@ -1544,55 +1544,55 @@
         <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU6" t="n">
         <v>7.8</v>
@@ -1601,13 +1601,13 @@
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
         <v>250</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>9.800000000000001</v>
@@ -1687,10 +1687,10 @@
         <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1702,10 +1702,10 @@
         <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
@@ -1717,16 +1717,16 @@
         <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1738,7 +1738,7 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>14.5</v>
@@ -1762,19 +1762,19 @@
         <v>14</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU7" t="n">
         <v>6.2</v>
@@ -1783,19 +1783,19 @@
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -2024,16 +2024,16 @@
         <v>1.55</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2051,28 +2051,28 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2087,19 +2087,19 @@
         <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2111,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2126,7 +2126,7 @@
         <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
@@ -2135,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2159,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2221,10 +2221,10 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -771,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -813,16 +813,16 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>401</v>
@@ -867,7 +867,7 @@
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -971,10 +971,10 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -1049,7 +1049,7 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
@@ -1311,13 +1311,13 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>3.4</v>
@@ -1344,10 +1344,10 @@
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>29</v>
@@ -1392,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1502,7 +1502,7 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1517,10 +1517,10 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
@@ -1657,25 +1657,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M7" t="n">
-        <v>9.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="N7" t="n">
         <v>1.04</v>
@@ -1687,10 +1687,10 @@
         <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1699,28 +1699,28 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
         <v>10.5</v>
@@ -1729,7 +1729,7 @@
         <v>6.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
@@ -1738,40 +1738,40 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM7" t="n">
         <v>25</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AO7" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
         <v>2.77</v>
@@ -1783,19 +1783,19 @@
         <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,58 +2021,58 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2084,25 +2084,25 @@
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2126,40 +2126,40 @@
         <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>101</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>201</v>
@@ -2206,55 +2206,55 @@
         <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2266,19 +2266,19 @@
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2296,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2314,16 +2314,16 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2341,10 +2341,10 @@
         <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2403,16 +2403,16 @@
         <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2421,10 +2421,10 @@
         <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2466,10 +2466,10 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2487,7 +2487,7 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2585,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2767,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>3.4</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -828,7 +828,7 @@
         <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>26</v>
@@ -846,10 +846,10 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -873,19 +873,19 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -947,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -974,7 +974,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1049,7 +1049,7 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -1144,7 +1144,7 @@
         <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1311,22 +1311,22 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,13 +1502,13 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
         <v>1.3</v>
@@ -1523,100 +1523,100 @@
         <v>1.88</v>
       </c>
       <c r="W6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X6" t="n">
         <v>6.3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1857,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -1983,10 +1983,10 @@
         <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2039,22 +2039,22 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,22 +2245,22 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2302,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
@@ -2314,7 +2314,7 @@
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2326,19 +2326,19 @@
         <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2403,16 +2403,16 @@
         <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.35</v>
@@ -2430,7 +2430,7 @@
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>1.95</v>
@@ -2585,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2612,7 +2612,7 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2657,10 +2657,10 @@
         <v>12</v>
       </c>
       <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
         <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2675,7 +2675,7 @@
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2767,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>3.75</v>
@@ -2794,7 +2794,7 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3.4</v>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -947,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
         <v>2.4</v>
@@ -974,7 +974,7 @@
         <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -1111,55 +1111,55 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>7</v>
@@ -1168,25 +1168,25 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1201,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
         <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
@@ -1219,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1228,25 +1228,25 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
         <v>151</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1311,40 +1311,40 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1356,10 +1356,10 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1386,31 +1386,31 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,10 +1499,10 @@
         <v>12.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>3.94</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1517,73 +1517,73 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
@@ -1595,28 +1595,28 @@
         <v>3.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AX6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ6" t="n">
         <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>10.4</v>
@@ -1681,16 +1681,16 @@
         <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
         <v>1.35</v>
@@ -1699,19 +1699,19 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>37</v>
@@ -1720,13 +1720,13 @@
         <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE7" t="n">
         <v>11.25</v>
@@ -1738,37 +1738,37 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>9</v>
       </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
         <v>19.5</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
       </c>
       <c r="AQ7" t="n">
         <v>65</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>200</v>
@@ -1777,25 +1777,25 @@
         <v>2.77</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB7" t="n">
         <v>200</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,10 +2245,10 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
@@ -2430,7 +2430,7 @@
         <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
@@ -2612,7 +2612,7 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -932,19 +932,19 @@
         <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -953,37 +953,37 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -992,10 +992,10 @@
         <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1010,13 +1010,13 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1046,19 +1046,19 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1070,7 +1070,7 @@
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,73 +1111,73 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,13 +1192,13 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1207,37 +1207,37 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1249,7 +1249,7 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1299,7 +1299,7 @@
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1314,25 +1314,25 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1341,7 +1341,7 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>13</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1377,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
@@ -1386,13 +1386,13 @@
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1410,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1502,7 +1502,7 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1517,10 +1517,10 @@
         <v>3.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -2045,16 +2045,16 @@
         <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2203,91 +2203,91 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>13</v>
@@ -2302,49 +2302,49 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2415,10 +2415,10 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>1.53</v>
@@ -2585,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>8</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2797,7 +2797,7 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2806,37 +2806,37 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,13 +1126,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1192,34 +1192,34 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1240,7 +1240,7 @@
         <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1308,13 +1308,13 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,16 +1335,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1356,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1404,10 +1404,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -1511,10 +1511,10 @@
         <v>2.07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="U6" t="n">
         <v>1.9</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1666,46 +1666,46 @@
         <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M7" t="n">
-        <v>10.4</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.04</v>
+        <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>3.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X7" t="n">
         <v>16.5</v>
@@ -1717,19 +1717,19 @@
         <v>37</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
         <v>6.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>40</v>
@@ -1738,34 +1738,34 @@
         <v>250</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1774,31 +1774,31 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2400,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2415,16 +2415,16 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.1</v>
@@ -2484,7 +2484,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2761,10 +2761,10 @@
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,13 +2791,13 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2809,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2839,7 +2839,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
@@ -2887,7 +2887,7 @@
         <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -947,22 +947,22 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,13 +1126,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1195,19 +1195,19 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
@@ -1219,13 +1219,13 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
@@ -1240,7 +1240,7 @@
         <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1502,13 +1502,13 @@
         <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1526,16 +1526,16 @@
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>20</v>
@@ -1544,76 +1544,76 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AR6" t="n">
         <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AZ6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>
@@ -1657,148 +1657,148 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
         <v>3.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.92</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>3.13</v>
+        <v>2.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>22</v>
       </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY7" t="n">
         <v>20</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AZ7" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA7" t="n">
         <v>90</v>
       </c>
-      <c r="AS7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>65</v>
-      </c>
       <c r="BB7" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2069,28 +2069,28 @@
         <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,16 +2099,16 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2120,16 +2120,16 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2147,16 +2147,16 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2233,10 +2233,10 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2245,25 +2245,25 @@
         <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>26</v>
@@ -2272,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2287,31 +2287,31 @@
         <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
       </c>
       <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2329,25 +2329,25 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
         <v>81</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2388,145 +2388,145 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
         <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
         <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,13 +2791,13 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2806,10 +2806,10 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
@@ -2818,13 +2818,13 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2839,7 +2839,7 @@
         <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2887,7 +2887,7 @@
         <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1129,25 +1129,25 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1216,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,13 +1311,13 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
         <v>3.4</v>
@@ -1329,19 +1329,19 @@
         <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1350,13 +1350,13 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1383,7 +1383,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1404,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1419,19 +1419,19 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I6" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.75</v>
@@ -1493,16 +1493,16 @@
         <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q6" t="n">
         <v>1.57</v>
@@ -1514,7 +1514,7 @@
         <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="U6" t="n">
         <v>1.9</v>
@@ -1523,16 +1523,16 @@
         <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
@@ -1541,31 +1541,31 @@
         <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
         <v>65</v>
       </c>
       <c r="AG6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
         <v>65</v>
@@ -1580,7 +1580,7 @@
         <v>5.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>15.5</v>
@@ -1592,13 +1592,13 @@
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU6" t="n">
         <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
         <v>8.75</v>
@@ -1607,7 +1607,7 @@
         <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
@@ -1616,7 +1616,7 @@
         <v>300</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,136 +1657,136 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="I7" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
         <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK7" t="n">
         <v>30</v>
       </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
       <c r="AL7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>20</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -2039,22 +2039,22 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2063,34 +2063,34 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,16 +2102,16 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2251,7 +2251,7 @@
         <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -2260,13 +2260,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
@@ -2284,7 +2284,7 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
         <v>17</v>
@@ -2293,19 +2293,19 @@
         <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>34</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2329,16 +2329,16 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
@@ -2347,7 +2347,7 @@
         <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2791,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2809,10 +2809,10 @@
         <v>8.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
@@ -2830,7 +2830,7 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
@@ -2848,7 +2848,7 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
@@ -765,22 +765,22 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
@@ -947,19 +947,19 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
         <v>1.44</v>
@@ -971,10 +971,10 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1034,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1147,7 +1147,7 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
         <v>2.25</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1329,7 +1329,7 @@
         <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.75</v>
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1696,34 +1696,34 @@
         <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD7" t="n">
         <v>5.4</v>
@@ -1732,10 +1732,10 @@
         <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
@@ -1744,37 +1744,37 @@
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
         <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU7" t="n">
         <v>6.4</v>
@@ -1783,10 +1783,10 @@
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AX7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY7" t="n">
         <v>20</v>
@@ -1854,16 +1854,16 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -1881,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
         <v>2</v>
@@ -1965,13 +1965,13 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -1980,13 +1980,13 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
         <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2063,34 +2063,34 @@
         <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
       </c>
       <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,16 +2102,16 @@
         <v>201</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2123,13 +2123,13 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2138,19 +2138,19 @@
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2162,13 +2162,13 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2206,10 +2206,10 @@
         <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2218,16 +2218,16 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
         <v>3.5</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2418,7 +2418,7 @@
         <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S11" t="n">
         <v>1.62</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
@@ -2767,10 +2767,10 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2785,16 +2785,16 @@
         <v>1.9</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2848,7 +2848,7 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3.4</v>
@@ -783,10 +783,10 @@
         <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -795,10 +795,10 @@
         <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -807,25 +807,25 @@
         <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -843,19 +843,19 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -864,13 +864,13 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -879,16 +879,16 @@
         <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -947,34 +947,34 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1034,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1129,16 +1129,16 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1219,7 +1219,7 @@
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1311,13 +1311,13 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
         <v>3.4</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="I6" t="n">
         <v>7.5</v>
@@ -1487,7 +1487,7 @@
         <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L6" t="n">
         <v>6.7</v>
@@ -1496,61 +1496,61 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.32</v>
+        <v>3.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE6" t="n">
         <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
         <v>400</v>
@@ -1577,22 +1577,22 @@
         <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
         <v>8.25</v>
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1693,16 +1693,16 @@
         <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
@@ -1711,22 +1711,22 @@
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1735,13 +1735,13 @@
         <v>75</v>
       </c>
       <c r="AG7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1756,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO7" t="n">
         <v>16.5</v>
@@ -1774,10 +1774,10 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
@@ -1789,7 +1789,7 @@
         <v>13.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>60</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
         <v>2.6</v>
@@ -1854,16 +1854,16 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
         <v>3.75</v>
@@ -1875,40 +1875,40 @@
         <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1917,22 +1917,22 @@
         <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1941,13 +1941,13 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1956,10 +1956,10 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -1980,13 +1980,13 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2030,46 +2030,46 @@
         <v>6.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>8.5</v>
@@ -2078,19 +2078,19 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,19 +2099,19 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.4</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2418,7 +2418,7 @@
         <v>2.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
         <v>1.62</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
@@ -2645,7 +2645,7 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>7.5</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
         <v>81</v>
@@ -2696,7 +2696,7 @@
         <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
         <v>4.2</v>
@@ -2767,28 +2767,28 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2797,7 +2797,7 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2806,22 +2806,22 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2830,16 +2830,16 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
@@ -2848,7 +2848,7 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -756,31 +756,31 @@
         <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,10 +971,10 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -989,28 +989,28 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1034,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,13 +1064,13 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1216,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1404,7 +1404,7 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1425,13 +1425,13 @@
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
         <v>151</v>
@@ -1481,16 +1481,16 @@
         <v>4.65</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
         <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1508,7 +1508,7 @@
         <v>1.52</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S6" t="n">
         <v>1.27</v>
@@ -1523,7 +1523,7 @@
         <v>1.92</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X6" t="n">
         <v>6</v>
@@ -1541,7 +1541,7 @@
         <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
         <v>8.25</v>
@@ -1553,7 +1553,7 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
@@ -1565,16 +1565,16 @@
         <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
         <v>5.7</v>
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
@@ -1660,37 +1660,37 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
         <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1699,16 +1699,16 @@
         <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1723,82 +1723,82 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>5.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG7" t="n">
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>55</v>
       </c>
-      <c r="AW7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>60</v>
-      </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,34 +1863,34 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1899,31 +1899,31 @@
         <v>15</v>
       </c>
       <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
         <v>13</v>
       </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1935,31 +1935,31 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>67</v>
@@ -1980,10 +1980,10 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,46 +2021,46 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.67</v>
@@ -2069,7 +2069,7 @@
         <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
         <v>8.5</v>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2138,7 +2138,7 @@
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2156,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -2221,16 +2221,16 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.35</v>
@@ -2239,112 +2239,112 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>21</v>
       </c>
       <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
         <v>17</v>
       </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -2618,22 +2618,22 @@
         <v>6</v>
       </c>
       <c r="X12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>10</v>
-      </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2648,13 +2648,13 @@
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2669,16 +2669,16 @@
         <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
@@ -2693,7 +2693,7 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
         <v>21</v>
@@ -2702,7 +2702,7 @@
         <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
         <v>101</v>
@@ -2749,46 +2749,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L13" t="n">
         <v>9</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2797,22 +2797,22 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2839,25 +2839,25 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
         <v>41</v>
@@ -2884,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -983,10 +983,10 @@
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1335,13 +1335,13 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1356,7 +1356,7 @@
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1383,7 +1383,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1496,13 +1496,13 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q6" t="n">
         <v>1.52</v>
@@ -1517,10 +1517,10 @@
         <v>3.42</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
         <v>6.9</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2045,10 +2045,10 @@
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.53</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -2224,19 +2224,19 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2254,7 +2254,7 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>251</v>
@@ -2290,10 +2290,10 @@
         <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2302,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2332,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
@@ -2344,7 +2344,7 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2388,10 +2388,10 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2400,13 +2400,13 @@
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -2433,7 +2433,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2469,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -2761,16 +2761,16 @@
         <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2779,16 +2779,16 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2797,7 +2797,7 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
@@ -2815,10 +2815,10 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2836,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
@@ -2848,7 +2848,7 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2878,10 +2878,10 @@
         <v>10</v>
       </c>
       <c r="AX13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1481,13 +1481,13 @@
         <v>4.65</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L6" t="n">
         <v>6.5</v>
@@ -1505,22 +1505,22 @@
         <v>4.45</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W6" t="n">
         <v>6.9</v>
@@ -1538,7 +1538,7 @@
         <v>8.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>14.5</v>
@@ -1547,25 +1547,25 @@
         <v>8.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ6" t="n">
         <v>19.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
@@ -1577,13 +1577,13 @@
         <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>37</v>
@@ -1592,13 +1592,13 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
         <v>8.75</v>
@@ -1613,10 +1613,10 @@
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2245,25 +2245,25 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
         <v>10</v>
       </c>
-      <c r="Y10" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2284,19 +2284,19 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,16 +2305,16 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2329,19 +2329,19 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2388,10 +2388,10 @@
         <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2400,13 +2400,13 @@
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.57</v>
@@ -2433,7 +2433,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2469,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H13" t="n">
         <v>5.25</v>
@@ -2767,10 +2767,10 @@
         <v>9.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2836,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
@@ -2848,10 +2848,10 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
@@ -2875,7 +2875,7 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>3.75</v>
@@ -1123,7 +1123,7 @@
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1135,16 +1135,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,16 +1153,16 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1183,10 +1183,10 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1198,7 +1198,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1216,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1478,19 +1478,19 @@
         <v>1.31</v>
       </c>
       <c r="H6" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K6" t="n">
         <v>2.47</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,13 +1502,13 @@
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
         <v>1.26</v>
@@ -1517,22 +1517,22 @@
         <v>3.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W6" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
         <v>7.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA6" t="n">
         <v>8.75</v>
@@ -1550,25 +1550,25 @@
         <v>15.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG6" t="n">
         <v>350</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>45</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
         <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>50</v>
@@ -1577,13 +1577,13 @@
         <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR6" t="n">
         <v>37</v>
@@ -1595,19 +1595,19 @@
         <v>3.35</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV6" t="n">
         <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
@@ -1678,7 +1678,7 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.37</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1854,13 +1854,13 @@
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,16 +1881,16 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1914,22 +1914,22 @@
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
@@ -1938,10 +1938,10 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1968,16 +1968,16 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2129,13 +2129,13 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
         <v>3.75</v>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2156,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2251,16 +2251,16 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11</v>
       </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -2284,7 +2284,7 @@
         <v>251</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2302,13 +2302,13 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2317,7 +2317,7 @@
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2403,16 +2403,16 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
         <v>2.7</v>
@@ -2433,7 +2433,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -2505,7 +2505,7 @@
         <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -765,13 +765,13 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>3.75</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1129,28 +1129,28 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.5</v>
@@ -1159,13 +1159,13 @@
         <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1222,13 +1222,13 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1311,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1502,7 +1502,7 @@
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1517,10 +1517,10 @@
         <v>3.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W6" t="n">
         <v>6.8</v>
@@ -1660,55 +1660,55 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.65</v>
+        <v>6.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="W7" t="n">
         <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
         <v>10.5</v>
@@ -1723,37 +1723,37 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE7" t="n">
         <v>13.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AI7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="n">
         <v>4.9</v>
@@ -1774,7 +1774,7 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU7" t="n">
         <v>6.3</v>
@@ -1786,19 +1786,19 @@
         <v>4.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1860,7 +1860,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1881,13 +1881,13 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>8.5</v>
@@ -1905,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1971,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>81</v>
@@ -1980,7 +1980,7 @@
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2251,25 +2251,25 @@
         <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2281,43 +2281,43 @@
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
         <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2329,19 +2329,19 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>251</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2582,13 +2582,13 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2618,7 +2618,7 @@
         <v>6</v>
       </c>
       <c r="X12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
@@ -2705,7 +2705,7 @@
         <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
         <v>301</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>1.73</v>
@@ -2764,7 +2764,7 @@
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2812,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>12</v>
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>1000</v>
@@ -2851,7 +2851,7 @@
         <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
@@ -2875,13 +2875,13 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.25</v>
@@ -762,7 +762,7 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,22 +789,22 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -861,34 +861,34 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="BA2" t="n">
-        <v>126</v>
-      </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1335,10 +1335,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,19 +1502,19 @@
         <v>1.12</v>
       </c>
       <c r="P6" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
-        <v>3.48</v>
+        <v>3.42</v>
       </c>
       <c r="U6" t="n">
         <v>1.82</v>
@@ -1523,40 +1523,40 @@
         <v>1.94</v>
       </c>
       <c r="W6" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X6" t="n">
         <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>8.75</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI6" t="n">
         <v>45</v>
@@ -1571,34 +1571,34 @@
         <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AP6" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1607,13 +1607,13 @@
         <v>45</v>
       </c>
       <c r="AY6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ6" t="n">
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1881,16 +1881,16 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1920,28 +1920,28 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1968,19 +1968,19 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
         <v>4.33</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -2254,16 +2254,16 @@
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2284,16 +2284,16 @@
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2332,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>29</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -2433,7 +2433,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -2475,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2511,7 +2511,7 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
@@ -2588,7 +2588,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2752,10 +2752,10 @@
         <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
         <v>1.73</v>
@@ -2767,22 +2767,22 @@
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2791,10 +2791,10 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2803,19 +2803,19 @@
         <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2827,16 +2827,16 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2884,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -789,22 +789,22 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -861,34 +861,34 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1162,7 +1162,7 @@
         <v>4.75</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1225,16 +1225,16 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.2</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW4" t="n">
         <v>6.5</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1499,10 +1499,10 @@
         <v>13.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>4.45</v>
+        <v>4.6</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1511,16 +1511,16 @@
         <v>2.27</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
@@ -1660,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.98</v>
@@ -1678,31 +1678,31 @@
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>6.85</v>
+        <v>6.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
         <v>8.25</v>
@@ -1723,10 +1723,10 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13.5</v>
@@ -1738,31 +1738,31 @@
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN7" t="n">
         <v>4.9</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
         <v>75</v>
@@ -1774,13 +1774,13 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW7" t="n">
         <v>4.4</v>
@@ -1792,7 +1792,7 @@
         <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA7" t="n">
         <v>90</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2051,10 +2051,10 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2090,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2129,7 +2129,7 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2147,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>29</v>
@@ -2156,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA9" t="n">
         <v>101</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1.73</v>
@@ -2773,16 +2773,16 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2791,10 +2791,10 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2803,19 +2803,19 @@
         <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2830,13 +2830,13 @@
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2884,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -828,10 +828,10 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -1117,49 +1117,49 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
         <v>6.5</v>
@@ -1177,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1207,7 +1207,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
@@ -1237,19 +1237,19 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
         <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1481,16 +1481,16 @@
         <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,40 +1499,40 @@
         <v>13.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R6" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S6" t="n">
         <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.48</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
         <v>7.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA6" t="n">
         <v>8.75</v>
@@ -1541,10 +1541,10 @@
         <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>16.5</v>
@@ -1553,25 +1553,25 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>20</v>
-      </c>
       <c r="AK6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="n">
         <v>3.25</v>
@@ -1580,7 +1580,7 @@
         <v>5.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>13.5</v>
@@ -1592,19 +1592,19 @@
         <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU6" t="n">
         <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY6" t="n">
         <v>40</v>
@@ -1613,7 +1613,7 @@
         <v>300</v>
       </c>
       <c r="BA6" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
         <v>450</v>
@@ -1660,19 +1660,19 @@
         <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,37 +1681,37 @@
         <v>6.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="W7" t="n">
         <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
@@ -1723,43 +1723,43 @@
         <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
         <v>22</v>
@@ -1774,22 +1774,22 @@
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AV7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>55</v>
@@ -1983,7 +1983,7 @@
         <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2391,7 +2391,7 @@
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.75</v>
@@ -2403,16 +2403,16 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q11" t="n">
         <v>2.7</v>
@@ -2436,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2457,10 +2457,10 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
@@ -2505,7 +2505,7 @@
         <v>2.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2585,16 +2585,16 @@
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
         <v>1.73</v>
@@ -2764,16 +2764,16 @@
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
@@ -2791,22 +2791,22 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2818,10 +2818,10 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2839,10 +2839,10 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2884,10 +2884,10 @@
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -971,25 +971,25 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1010,28 +1010,28 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1055,19 +1055,19 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.67</v>
@@ -1210,7 +1210,7 @@
         <v>81</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1493,16 +1493,16 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>13.9</v>
+        <v>14.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>5.24</v>
       </c>
       <c r="Q6" t="n">
         <v>1.47</v>
@@ -1511,16 +1511,16 @@
         <v>2.32</v>
       </c>
       <c r="S6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>3.75</v>
+        <v>3.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1983,7 +1983,7 @@
         <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2039,13 +2039,13 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P9" t="n">
         <v>5.5</v>
@@ -2221,22 +2221,22 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
@@ -2409,10 +2409,10 @@
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.7</v>
@@ -2433,10 +2433,10 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
@@ -2457,10 +2457,10 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
@@ -2475,7 +2475,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2585,16 +2585,16 @@
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
         <v>1.73</v>
@@ -2764,25 +2764,25 @@
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2800,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2818,10 +2818,10 @@
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2830,19 +2830,19 @@
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -828,10 +828,10 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2.6</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1350,13 +1350,13 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1383,7 +1383,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1404,10 +1404,10 @@
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1675,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.95</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1881,25 +1881,25 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1908,16 +1908,16 @@
         <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>12</v>
@@ -1926,13 +1926,13 @@
         <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1941,13 +1941,13 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2039,22 +2039,22 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2221,22 +2221,22 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2403,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
         <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
         <v>2.25</v>
@@ -2433,7 +2433,7 @@
         <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
@@ -2457,10 +2457,10 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>301</v>
@@ -2752,7 +2752,7 @@
         <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -2761,28 +2761,28 @@
         <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2797,25 +2797,25 @@
         <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2851,7 +2851,7 @@
         <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.2</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -861,7 +861,7 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>5.25</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -1019,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>6.5</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1129,16 +1129,16 @@
         <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.88</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2218,13 +2218,13 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,16 +2245,16 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
@@ -2296,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2329,13 +2329,13 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
         <v>67</v>
@@ -2344,7 +2344,7 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2427,22 +2427,22 @@
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2469,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2484,10 +2484,10 @@
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>29</v>
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>12</v>
@@ -2761,10 +2761,10 @@
         <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2800,7 +2800,7 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
@@ -2821,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2836,25 +2836,25 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
         <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1135,70 +1135,70 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1207,49 +1207,49 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
         <v>81</v>
       </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>101</v>
-      </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -2224,7 +2224,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K13" t="n">
         <v>2.6</v>
       </c>
       <c r="L13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2791,16 +2791,16 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
@@ -2809,28 +2809,28 @@
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
@@ -2839,22 +2839,22 @@
         <v>29</v>
       </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="n">
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
         <v>15</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2875,19 +2875,19 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.88</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1299,10 +1299,10 @@
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1353,7 +1353,7 @@
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1374,13 +1374,13 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1887,16 +1887,16 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
@@ -1920,28 +1920,28 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>12</v>
       </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1965,16 +1965,16 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
         <v>81</v>
@@ -2039,10 +2039,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
@@ -2051,10 +2051,10 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2251,7 +2251,7 @@
         <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>9</v>
@@ -2323,7 +2323,7 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2338,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2579,7 +2579,7 @@
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>4.5</v>
@@ -2630,7 +2630,7 @@
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
         <v>7.5</v>
@@ -2639,10 +2639,10 @@
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2696,7 +2696,7 @@
         <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2708,7 +2708,7 @@
         <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2773,16 +2773,16 @@
         <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.3</v>
@@ -2791,16 +2791,16 @@
         <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
@@ -2812,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>12</v>
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
         <v>3.4</v>
@@ -2875,19 +2875,19 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
         <v>2.88</v>
@@ -1302,7 +1302,7 @@
         <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1353,7 +1353,7 @@
         <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1374,13 +1374,13 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1887,22 +1887,22 @@
         <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>9.5</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,37 +1920,37 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1968,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>26</v>
@@ -1977,10 +1977,10 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -2030,10 +2030,10 @@
         <v>6.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2051,10 +2051,10 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2063,13 +2063,13 @@
         <v>3.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>8.5</v>
@@ -2105,7 +2105,7 @@
         <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2132,7 +2132,7 @@
         <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS9" t="n">
         <v>81</v>
@@ -2165,7 +2165,7 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2227,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2591,10 +2591,10 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2767,10 +2767,10 @@
         <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>5.75</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.91</v>
@@ -953,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -998,10 +998,10 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1141,16 +1141,16 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.38</v>
@@ -1162,22 +1162,22 @@
         <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1198,7 +1198,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1210,10 +1210,10 @@
         <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1228,7 +1228,7 @@
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1246,7 +1246,7 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
         <v>201</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1347,16 +1347,16 @@
         <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>10</v>
@@ -1377,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1398,16 +1398,16 @@
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -2045,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q9" t="n">
         <v>1.48</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
@@ -2227,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,16 +2245,16 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2269,28 +2269,28 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2323,7 +2323,7 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2338,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
         <v>101</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>3.6</v>
@@ -2585,10 +2585,10 @@
         <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2597,10 +2597,10 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
@@ -2633,37 +2633,37 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
         <v>4</v>
@@ -2678,7 +2678,7 @@
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K13" t="n">
         <v>2.63</v>
       </c>
       <c r="L13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2779,31 +2779,31 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
@@ -2812,10 +2812,10 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>10</v>
@@ -2824,7 +2824,7 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
@@ -2863,10 +2863,10 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU13" t="n">
         <v>10</v>
@@ -2875,19 +2875,19 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -998,10 +998,10 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>101</v>
@@ -1040,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
@@ -1052,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1392,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1657,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.95</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q7" t="n">
         <v>2.02</v>
       </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -1699,49 +1699,49 @@
         <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>8.25</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1753,49 +1753,49 @@
         <v>22</v>
       </c>
       <c r="AM7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AX7" t="n">
         <v>12.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
@@ -2045,10 +2045,10 @@
         <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.48</v>
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
         <v>4.5</v>
@@ -2597,31 +2597,31 @@
         <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
         <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>19</v>
@@ -2639,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>17</v>
@@ -2672,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2684,13 +2684,13 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>5.5</v>
@@ -2699,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -932,25 +932,25 @@
         <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -965,10 +965,10 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>2.5</v>
@@ -1010,13 +1010,13 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1028,7 +1028,7 @@
         <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -1037,7 +1037,7 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,7 +1046,7 @@
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1135,16 +1135,16 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
@@ -2087,10 +2087,10 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,13 +2102,13 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
@@ -2165,10 +2165,10 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -944,7 +944,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -1010,7 +1010,7 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
         <v>4.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.91</v>
@@ -2051,10 +2051,10 @@
         <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.25</v>
@@ -2090,7 +2090,7 @@
         <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2102,13 +2102,13 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>67</v>
@@ -2165,10 +2165,10 @@
         <v>151</v>
       </c>
       <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -771,16 +771,16 @@
         <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -947,16 +947,16 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -1031,7 +1031,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1049,10 +1049,10 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1141,31 +1141,31 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.5</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>12</v>
@@ -1174,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,13 +1192,13 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1207,31 +1207,31 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2773,16 +2773,16 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1153,16 +1153,16 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1210,28 +1210,28 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -2773,16 +2773,16 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2.25</v>
@@ -789,13 +789,13 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -947,10 +947,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -1034,7 +1034,7 @@
         <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1049,10 +1049,10 @@
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -1067,7 +1067,7 @@
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.38</v>
@@ -1135,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,16 +1153,16 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1195,10 +1195,10 @@
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1210,28 +1210,28 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2260,10 +2260,10 @@
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2287,10 +2287,10 @@
         <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2344,13 +2344,13 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
         <v>5.5</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
         <v>1.67</v>
       </c>
       <c r="K13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2779,10 +2779,10 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S13" t="n">
         <v>1.29</v>
@@ -2806,7 +2806,7 @@
         <v>10</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2818,10 +2818,10 @@
         <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
@@ -2830,13 +2830,13 @@
         <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
         <v>151</v>
@@ -2845,7 +2845,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="n">
         <v>3.2</v>
@@ -2857,19 +2857,19 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
         <v>3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2881,7 +2881,7 @@
         <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -777,10 +777,10 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -971,13 +971,13 @@
         <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -1031,10 +1031,10 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1135,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,22 +1153,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1177,43 +1177,43 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1231,25 +1231,25 @@
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA4" t="n">
         <v>126</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>151</v>
       </c>
       <c r="BB4" t="n">
         <v>351</v>
@@ -2233,10 +2233,10 @@
         <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1675,10 +1675,10 @@
         <v>2.95</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-17.xlsx
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.4</v>
+        <v>7.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
         <v>2.02</v>
@@ -1699,31 +1699,31 @@
         <v>2.52</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
         <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
         <v>5.9</v>
@@ -1738,43 +1738,43 @@
         <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>11.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP7" t="n">
         <v>22</v>
       </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AS7" t="n">
         <v>250</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU7" t="n">
         <v>6.6</v>
@@ -1783,19 +1783,19 @@
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY7" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA7" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB7" t="n">
         <v>250</v>
